--- a/Person page data.xlsx
+++ b/Person page data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sewert/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9279AD-14A8-BE46-AAA4-93CC2AE35CF3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E80E3D-DB1F-4B4E-99B4-DCBD5427D71D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="72000" yWindow="-7200" windowWidth="38400" windowHeight="21140" xr2:uid="{03100F37-EB1D-1340-9A37-34F2BF30EE64}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="83">
   <si>
     <t>Full name</t>
   </si>
@@ -247,9 +247,6 @@
   </si>
   <si>
     <t>hard coded links based on account/location?</t>
-  </si>
-  <si>
-    <t>does it just use contributorCount and userChangeCount ?</t>
   </si>
   <si>
     <t>platform/tree/persons/{PID}/matches?confidence=4&amp;count=100</t>
@@ -657,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4D882F-ED53-C34D-9D80-9C72CD105B14}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,7 +679,7 @@
         <v>64</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -690,10 +687,10 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -720,10 +717,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -731,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q7" t="s">
         <v>71</v>
@@ -745,7 +742,7 @@
         <v>65</v>
       </c>
       <c r="Q8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -756,7 +753,7 @@
         <v>61</v>
       </c>
       <c r="Q9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -775,10 +772,10 @@
         <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -808,7 +805,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -829,7 +826,7 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -842,7 +839,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -850,7 +847,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -858,7 +855,7 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -866,7 +863,7 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -874,7 +871,7 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -882,7 +879,7 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -890,7 +887,7 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -898,7 +895,7 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -906,7 +903,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -914,7 +911,7 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -922,7 +919,7 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -935,7 +932,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -948,7 +945,7 @@
         <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -956,7 +953,7 @@
         <v>54</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -972,7 +969,7 @@
         <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -980,7 +977,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -988,7 +985,7 @@
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -996,7 +993,7 @@
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1004,7 +1001,7 @@
         <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1012,7 +1009,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1020,7 +1017,7 @@
         <v>36</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1028,7 +1025,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1036,7 +1033,7 @@
         <v>38</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1044,7 +1041,7 @@
         <v>39</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1052,7 +1049,7 @@
         <v>40</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1060,7 +1057,7 @@
         <v>41</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1068,7 +1065,7 @@
         <v>42</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1076,7 +1073,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1084,7 +1081,7 @@
         <v>43</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1092,7 +1089,7 @@
         <v>44</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1100,7 +1097,7 @@
         <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1108,7 +1105,7 @@
         <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1116,7 +1113,7 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1137,7 +1134,7 @@
         <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1161,15 +1158,15 @@
         <v>51</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>52</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>74</v>
+      <c r="B61" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1177,7 +1174,7 @@
         <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1185,15 +1182,15 @@
         <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Person page data.xlsx
+++ b/Person page data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sewert/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E80E3D-DB1F-4B4E-99B4-DCBD5427D71D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85343EF6-2E91-3E4B-B29D-70D301CEEC4B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="72000" yWindow="-7200" windowWidth="38400" windowHeight="21140" xr2:uid="{03100F37-EB1D-1340-9A37-34F2BF30EE64}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="85">
   <si>
     <t>Full name</t>
   </si>
@@ -274,6 +274,12 @@
   </si>
   <si>
     <t>fs-user/users/{cisID}/preferences?name=tree.showLDSTempleInfo, {preference}</t>
+  </si>
+  <si>
+    <t>User message count</t>
+  </si>
+  <si>
+    <t>collaboration/messaging/api/users/{cisId}/counters</t>
   </si>
 </sst>
 </file>
@@ -652,15 +658,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4D882F-ED53-C34D-9D80-9C72CD105B14}">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -684,167 +691,170 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>78</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q5" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>75</v>
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
       </c>
       <c r="Q6" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q7" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="Q8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Q9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q10" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>75</v>
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
       </c>
       <c r="Q11" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="Q12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>75</v>
@@ -852,7 +862,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
         <v>75</v>
@@ -860,7 +870,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
         <v>75</v>
@@ -868,7 +878,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>75</v>
@@ -876,7 +886,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
         <v>75</v>
@@ -884,7 +894,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>75</v>
@@ -892,7 +902,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
         <v>75</v>
@@ -900,7 +910,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
         <v>75</v>
@@ -908,7 +918,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
         <v>75</v>
@@ -916,81 +926,81 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>15</v>
       </c>
-      <c r="B29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>28</v>
       </c>
-      <c r="B31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>76</v>
+        <v>53</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>30</v>
       </c>
-      <c r="B36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
         <v>75</v>
@@ -998,7 +1008,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
         <v>75</v>
@@ -1006,23 +1016,23 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>76</v>
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>75</v>
@@ -1030,23 +1040,23 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>75</v>
@@ -1054,23 +1064,23 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>75</v>
@@ -1078,7 +1088,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>75</v>
@@ -1086,23 +1096,23 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" t="s">
-        <v>75</v>
+        <v>44</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B53" t="s">
         <v>75</v>
@@ -1110,68 +1120,68 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>57</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>70</v>
-      </c>
-      <c r="B57" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>48</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="B58" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>49</v>
-      </c>
-      <c r="B59" t="s">
-        <v>72</v>
+        <v>48</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B62" t="s">
         <v>75</v>
@@ -1179,17 +1189,25 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>59</v>
       </c>
-      <c r="B63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+      <c r="B64" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>82</v>
       </c>
     </row>
